--- a/Data/chla_extraction/chla_RCD_data.xlsx
+++ b/Data/chla_extraction/chla_RCD_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwoel\Dropbox\Thesis\Thesis\DataAnalysis\Data\chla_extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwoel\Dropbox\Thesis\Data\chla_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B9E74-F807-4BBE-B432-8B2123FF1D82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D261422-428A-4EC7-BD2D-A4E93E5B9D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3CD18540-AA69-4A01-8396-DD98CFF250A1}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>Chla_ugL</t>
   </si>
   <si>
-    <t>blank</t>
-  </si>
-  <si>
     <t>B45</t>
   </si>
   <si>
@@ -102,7 +99,7 @@
     <t>Bobbie's correction ugL</t>
   </si>
   <si>
-    <t>chlorella</t>
+    <t>Flag_BDL</t>
   </si>
 </sst>
 </file>
@@ -462,236 +459,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB90532C-FFD2-43FE-B2BB-0B4933DEC14B}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.9212800000000017</v>
       </c>
       <c r="E2">
-        <v>-0.45824000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
+        <v>2.6921600000000012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1.0310400000000002</v>
+        <v>1.8902399999999999</v>
       </c>
       <c r="E3">
-        <v>0.57279999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
+        <v>1.6611199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0.34367999999999999</v>
+        <v>0.98194285714285723</v>
       </c>
       <c r="E4">
-        <v>-0.11456000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.65462857142857156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43584</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2.9212800000000017</v>
+        <v>2.0620800000000004</v>
       </c>
       <c r="E5">
-        <v>2.6921600000000012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.8329600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43584</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1.8902399999999999</v>
+        <v>0.51552000000000009</v>
       </c>
       <c r="E6">
-        <v>1.6611199999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.28639999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43584</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.98194285714285723</v>
+        <v>1.7184000000000006</v>
       </c>
       <c r="E7">
-        <v>0.65462857142857156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.3365333333333338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43584</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
+        <v>1.4729142857142861</v>
+      </c>
+      <c r="E8">
+        <v>1.1456000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2.2339199999999995</v>
+      </c>
+      <c r="E9">
+        <v>2.0047999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>2.0620800000000004</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>1.8329600000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0.51552000000000009</v>
-      </c>
-      <c r="E9">
-        <v>0.28639999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.98194285714285678</v>
+      </c>
+      <c r="E11">
+        <v>0.65462857142857112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>1.7184000000000006</v>
-      </c>
-      <c r="E10">
-        <v>1.3365333333333338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>1.4729142857142861</v>
-      </c>
-      <c r="E11">
-        <v>1.1456000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1.2274285714285713</v>
+      </c>
+      <c r="E12">
+        <v>0.90011428571428609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>2.2339199999999995</v>
-      </c>
-      <c r="E12">
-        <v>2.0047999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
+      <c r="C13" t="s">
+        <v>11</v>
       </c>
       <c r="D13">
+        <v>2.2339200000000003</v>
+      </c>
+      <c r="E13">
+        <v>2.0048000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1.5465600000000002</v>
+      </c>
+      <c r="E14">
+        <v>1.3174400000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>2.2339200000000003</v>
+      </c>
+      <c r="E15">
+        <v>2.0048000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
         <v>2.0620800000000004</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>1.8329600000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>0.98194285714285678</v>
-      </c>
-      <c r="E14">
-        <v>0.65462857142857112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>1.2274285714285713</v>
-      </c>
-      <c r="E15">
-        <v>0.90011428571428609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>2.2339200000000003</v>
-      </c>
-      <c r="E16">
-        <v>2.0048000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -699,13 +711,13 @@
         <v>43584</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>1.5465600000000002</v>
+        <v>2.2339199999999995</v>
       </c>
       <c r="E17">
-        <v>1.3174400000000004</v>
+        <v>2.0047999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -713,13 +725,13 @@
         <v>43584</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>2.2339200000000003</v>
+        <v>1.7183999999999999</v>
       </c>
       <c r="E18">
-        <v>2.0048000000000004</v>
+        <v>1.4892799999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -727,13 +739,16 @@
         <v>43584</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>2.0620800000000004</v>
+        <v>2.2339200000000003</v>
       </c>
       <c r="E19">
-        <v>1.8329600000000001</v>
+        <v>2.0048000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -741,13 +756,13 @@
         <v>43584</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>2.2339199999999995</v>
+        <v>2.9212799999999999</v>
       </c>
       <c r="E20">
-        <v>2.0047999999999999</v>
+        <v>2.6921600000000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -755,13 +770,13 @@
         <v>43584</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>1.7183999999999999</v>
+        <v>2.2339200000000003</v>
       </c>
       <c r="E21">
-        <v>1.4892799999999997</v>
+        <v>2.0048000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -769,72 +784,60 @@
         <v>43584</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>2.2339200000000003</v>
+        <v>1.7184000000000006</v>
       </c>
       <c r="E22">
-        <v>2.0048000000000004</v>
+        <v>1.3365333333333338</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>43584</v>
+        <v>43615</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23">
-        <v>2.9212799999999999</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>2.6921600000000003</v>
+        <v>1.3747200000000006</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>43584</v>
+        <v>43615</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>2.2339200000000003</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>2.0048000000000004</v>
+        <v>1.7184000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>43584</v>
+        <v>43615</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>1.7184000000000006</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1.3365333333333338</v>
+        <v>1.0310399999999997</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>5.8425599999999998</v>
+      <c r="A26" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>5.3843200000000007</v>
+        <v>0.51552000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -842,10 +845,10 @@
         <v>43615</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>1.3747200000000006</v>
+        <v>4.6396800000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -853,10 +856,10 @@
         <v>43615</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>1.7184000000000004</v>
+        <v>4.8115199999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -864,10 +867,10 @@
         <v>43615</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>1.0310399999999997</v>
+        <v>0.85919999999999963</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -875,10 +878,10 @@
         <v>43615</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0.51552000000000009</v>
+        <v>0.68735999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -886,10 +889,13 @@
         <v>43615</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>4.6396800000000002</v>
+        <v>0.71600000000000019</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -897,195 +903,718 @@
         <v>43615</v>
       </c>
       <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>1.7184000000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>4.6396800000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>1.0310400000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>4.4678400000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>1.7377078651685394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>1.7183999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="E32">
-        <v>4.8115199999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>0.85919999999999963</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>0.68735999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>0.71600000000000019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>1.7184000000000008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37">
-        <v>4.6396800000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="E38">
+        <v>0.85920000000000019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>0.51552000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="E38">
-        <v>1.0310400000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>4.4678400000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
       <c r="E40">
-        <v>1.7377078651685394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.7804800000000012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43615</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41">
+        <v>0.51551999999999987</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>0.51551999999999987</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1.5465599999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>0.51551999999999998</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>9.4512</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>0.278659459</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>0.30324705899999999</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>9.4512</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>0.399627907</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B53" t="s">
         <v>12</v>
       </c>
-      <c r="E41">
-        <v>1.7183999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E53">
+        <v>2.2451457289999999</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>1.11696</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>9.6230399999999996</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>0.17183999999999999</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1.8329599999999999</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>15.4656</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>0.36561702099999999</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>18.215039999999998</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>2.2911999999999999</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>1.6693028569999999</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>1.996121212</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>8.5919999999999996E-2</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>7.2172799999999997</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>0.560783217</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>14.09088</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>10.095599999999999</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>15.121919999999999</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>0.25775999999999999</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>1.4892799999999999</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>2.0620799999999999</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>0.30504142000000001</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B75" t="s">
         <v>16</v>
       </c>
-      <c r="E42">
-        <v>0.85920000000000019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E75">
+        <v>0.43393939399999998</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1.3747199999999999</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B78" t="s">
         <v>17</v>
       </c>
-      <c r="E43">
-        <v>0.51552000000000009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>3.7804800000000012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>0.51551999999999987</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46">
-        <v>0.51551999999999987</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>43615</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="E78">
+        <v>1.49426087</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79">
+        <v>17.184000000000001</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1.11696</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B81" t="s">
         <v>3</v>
       </c>
-      <c r="E47">
-        <v>1.5465599999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48">
-        <v>3.0931200000000003</v>
+      <c r="E81">
+        <v>1.1456</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>0.17183999999999999</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>43668</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>0.25775999999999999</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
